--- a/data/trans_bre/P25_11-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_11-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>143,72%</t>
+          <t>-5,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>440,34%</t>
+          <t>58,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>153,48%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-55,45%</t>
         </is>
       </c>
     </row>
@@ -642,30 +668,40 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 9,71</t>
+          <t>-9,15; 10,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 13,25</t>
+          <t>0,0; 15,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 7,33</t>
+          <t>0,0; 12,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-23,27; 3,87</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>-5,62</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>-5,16</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-74,12%</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-6,8%</t>
+          <t>-73,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>-8,24%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>320,44%</t>
         </is>
       </c>
     </row>
@@ -722,30 +768,40 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 0,59</t>
+          <t>-16,12; 1,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 4,95</t>
+          <t>-8,9; 7,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,3; -0,82</t>
+          <t>-16,62; -1,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-1,15; 16,06</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>8,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,36</t>
+          <t>8,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>163,77%</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>938,86%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>45,54%</t>
+          <t>352,34%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>127,7%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-6,74%</t>
         </is>
       </c>
     </row>
@@ -802,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 12,85</t>
+          <t>4,0; 16,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,73; 17,42</t>
+          <t>-0,14; 15,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 10,67</t>
+          <t>-4,18; 12,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-30,96; 1319,73</t>
+          <t>-12,23; 8,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -827,7 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-59,59; 571,05</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-61,27; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-77,09; 272,98</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,91</t>
+          <t>10,39</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>6,66</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,22</t>
+          <t>14,86</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>283,7%</t>
+          <t>16,85</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>98,5%</t>
+          <t>218,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>169,13%</t>
+          <t>105,98%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>296,56%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>285,33%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,98; 15,58</t>
+          <t>2,79; 19,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 15,1</t>
+          <t>-1,87; 15,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 17,09</t>
+          <t>5,45; 23,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>42,69; 1174,05</t>
+          <t>7,4; 26,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,84; 386,11</t>
+          <t>5,57; 1114,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,21; 542,81</t>
+          <t>-24,4; 692,5</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>41,02; 1561,85</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>57,5; 1049,61</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,47</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>14,57</t>
+          <t>11,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,93</t>
+          <t>8,73</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>123,05%</t>
+          <t>7,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>273,22%</t>
+          <t>60,63%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>105,02%</t>
+          <t>142,2%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>76,46%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>56,68%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 16,37</t>
+          <t>-4,96; 18,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,22; 24,74</t>
+          <t>-0,58; 24,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 17,24</t>
+          <t>-3,1; 23,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 475,56</t>
+          <t>-5,76; 21,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>73,38; 944,8</t>
+          <t>-46,57; 513,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 428,94</t>
+          <t>-13,4; 622,98</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-24,64; 363,98</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-33,94; 272,09</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,7</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,21</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>158,66%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,91%</t>
+          <t>-0,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>234,67%</t>
+          <t>85,98%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>53,7%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0,04%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 21,36</t>
+          <t>-15,46; 11,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 9,41</t>
+          <t>-7,55; 18,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,39; 21,75</t>
+          <t>-7,81; 14,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-21,82; 1030,37</t>
+          <t>-14,14; 14,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-70,64; 464,93</t>
+          <t>-87,38; 558,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-30,35; —</t>
+          <t>-74,96; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-84,53; 472,45</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>124,25%</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>173,38%</t>
+          <t>66,29%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>109,89%</t>
+          <t>124,96%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>98,81%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>57,84%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,25; 8,34</t>
+          <t>-0,41; 7,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,26; 10,33</t>
+          <t>2,17; 9,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,44; 8,74</t>
+          <t>0,73; 8,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>28,95; 257,61</t>
+          <t>0,08; 9,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>79,99; 366,21</t>
+          <t>-6,79; 192,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,62; 238,45</t>
+          <t>33,38; 307,25</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>9,13; 237,94</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-4,74; 155,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P25_11-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_11-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,171 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,42</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,37</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-5,95</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>58,63%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-55,45%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>5.943007453491157</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.148961826016209</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.264711287675167</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-4.309663753717022</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>2.094431293618302</v>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.4714296074587571</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,15; 10,1</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 15,68</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 12,24</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-23,27; 3,87</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.382660427614455</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-19.28001706805422</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>25.84727347614055</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>16.98641148015288</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>11.67646843350815</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.744431085155351</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-5,62</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,32</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-5,16</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5,32</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-73,18%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-8,24%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>320,44%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-16,12; 1,96</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,9; 7,08</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-16,62; -1,11</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,15; 16,06</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-8.142929783162058</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.100087793818809</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-5.858015399687583</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>4.174710442358447</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.781965329786215</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.3661362561592496</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>2.005186349974641</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>8,57</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,34</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,5</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>352,34%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>127,7%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-6,74%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-29.06456292267693</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-17.10925733449867</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-20.15404611214715</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.542033109181434</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>4,0; 16,06</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,14; 15,11</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,18; 12,71</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-12,23; 8,09</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-61,27; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-77,09; 272,98</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.099182702976492</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.464635613785316</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-1.256006206622738</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>13.41544523269753</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +799,191 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>10,39</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6,66</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>14,86</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>16,85</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>218,66%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>105,98%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>296,56%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>285,33%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>8.874954631180781</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>8.853790247961902</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.569823151082206</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.1503506823085879</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>3.435931878470555</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>1.218058585430291</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.01765569260612928</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>2,79; 19,24</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,87; 15,07</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>5,45; 23,62</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>7,4; 26,49</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>5,57; 1114,84</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-24,4; 692,5</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>41,02; 1561,85</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>57,5; 1049,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>4.362352170856456</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.2530355720298149</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.688619942501594</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-11.35189397119288</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.629027074925942</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7558509304387149</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>17.43450563775947</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>15.95049405670881</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>13.11820340061506</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>9.156345725082222</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>3.173085607250934</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>5,38</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>11,4</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>8,73</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>7,88</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>60,63%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>142,2%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>76,46%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>56,68%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-4,96; 18,1</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,58; 24,3</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,1; 23,54</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-5,76; 21,91</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-46,57; 513,48</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-13,4; 622,98</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-24,64; 363,98</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-33,94; 272,09</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>8.86854782021903</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.257394698585168</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>14.40425452440358</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>16.24745423550402</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1.692699155829073</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.215994687754455</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>3.108696883040756</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>2.86411232674292</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5,56</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,9</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-0,42%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>85,98%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>53,7%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,04%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.5324719575081736</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.232981362999358</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>5.752559893329725</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>6.946553312855139</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.155231504278264</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2237017571563315</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.489789864787865</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.5909140435551977</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-15,46; 11,86</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-7,55; 18,75</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-7,81; 14,12</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-14,14; 14,35</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-87,38; 558,35</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-74,96; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-84,53; 472,45</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>17.02357440819055</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>15.75813078842371</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>23.18397862871014</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>25.61031632252587</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>8.945062064986095</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>7.356995326919065</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>16.68571283033983</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>11.00316668553262</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +991,293 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>3,63</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>5,75</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>5,09</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>4,59</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>66,29%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>124,96%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>98,81%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>57,84%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>5.911085153914216</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>11.78729375558587</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>8.995324813830429</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>8.324828493254339</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.6993564760954127</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>1.534258163608024</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.7934784221559676</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.5955213474146955</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-0,41; 7,12</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,17; 9,28</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 8,79</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 9,12</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-6,79; 192,03</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>33,38; 307,25</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>9,13; 237,94</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-4,74; 155,85</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-4.064435512099751</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0.06421961511118357</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-3.198186249686549</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-5.366570054266675</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.4366132440843729</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.08172366803134974</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.2618105713988338</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.3217437425933474</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>19.13214608296387</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>25.39255121838164</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>23.77798269955697</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>22.51697373299157</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>5.355356958653301</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>6.912185636277065</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>3.642817290269649</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>2.803407341286251</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>1.20809680360951</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>6.767925089047941</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>1.952431604744467</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>1.126711165114378</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.1601549425119384</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>1.099769904164634</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0.3600950804159797</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.1045888927397216</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-12.2879692014861</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-5.970891073817534</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-9.100318137303422</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-12.54943186340171</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.8549272917266659</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.747062082656261</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.7873417712404089</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>12.9620543447962</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>21.17565882800277</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>12.47478204673616</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>17.38739477041723</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>6.823691578147882</v>
+      </c>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="n">
+        <v>5.747962749407241</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>3.726360470143341</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>6.01010790056025</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>4.751062144553366</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>4.862545092264109</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.6384627688796309</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>1.259555636597567</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.9058524011548118</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.6307437060501594</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-0.9871547293699885</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>1.835083509103449</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.4874992697630182</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.35549862364725</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.1542082791528974</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.2650717592771233</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>0.04240121427967812</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>0.007497308977172693</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>7.881995025652246</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>9.695793143475633</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>8.405351035964015</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>9.643687448009596</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>1.977619828312072</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>3.225382051410065</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>2.325348547393711</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>1.65049375034157</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1285,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
